--- a/exercise_OECD_data/2-Final_Data/L_2017.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2017.xlsx
@@ -822,7 +822,7 @@
         <v>2.89725848975806</v>
       </c>
       <c r="F9">
-        <v>0.6378087923272709</v>
+        <v>0.637808792327271</v>
       </c>
       <c r="G9">
         <v>13.9370549035651</v>
@@ -1103,7 +1103,7 @@
         <v>96.3806468759755</v>
       </c>
       <c r="M14">
-        <v>98.6873780185829</v>
+        <v>98.68737801858291</v>
       </c>
       <c r="N14">
         <v>131.862177642228</v>
@@ -1158,7 +1158,7 @@
         <v>190.741858217568</v>
       </c>
       <c r="N15">
-        <v>90.69448383412229</v>
+        <v>90.6944838341223</v>
       </c>
       <c r="O15">
         <v>2646.67033583464</v>
@@ -1177,7 +1177,7 @@
         <v>414.023024932252</v>
       </c>
       <c r="C16">
-        <v>67.6140917410634</v>
+        <v>67.61409174106341</v>
       </c>
       <c r="D16">
         <v>1.40528841040284</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>995.7780676197719</v>
+        <v>995.778067619772</v>
       </c>
       <c r="C18">
         <v>41.8657921746163</v>
@@ -1311,7 +1311,7 @@
         <v>21.192508115727</v>
       </c>
       <c r="M18">
-        <v>99.76709517046829</v>
+        <v>99.7670951704683</v>
       </c>
       <c r="N18">
         <v>22.0935568205566</v>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>972.600957804266</v>
+        <v>972.6009578042661</v>
       </c>
       <c r="C19">
         <v>23.6827666975402</v>
@@ -1626,7 +1626,7 @@
         <v>31.1999915686083</v>
       </c>
       <c r="N24">
-        <v>96.0432844431762</v>
+        <v>96.04328444317621</v>
       </c>
       <c r="O24">
         <v>2547.37828210678</v>
@@ -1727,7 +1727,7 @@
         <v>38.887387425671</v>
       </c>
       <c r="M26">
-        <v>79.02641863230789</v>
+        <v>79.0264186323079</v>
       </c>
       <c r="N26">
         <v>35.5341622595553</v>
@@ -1773,7 +1773,7 @@
         <v>4.09971684587845</v>
       </c>
       <c r="K27">
-        <v>0.6627522222822469</v>
+        <v>0.662752222282247</v>
       </c>
       <c r="L27">
         <v>4.33849681080254</v>
@@ -2061,7 +2061,7 @@
         <v>3407.91244589418</v>
       </c>
       <c r="C33">
-        <v>95.28721573947089</v>
+        <v>95.2872157394709</v>
       </c>
       <c r="D33">
         <v>18.5985900976223</v>
@@ -2360,7 +2360,7 @@
         <v>1768.10958162598</v>
       </c>
       <c r="P38">
-        <v>74.85450403875249</v>
+        <v>74.8545040387525</v>
       </c>
     </row>
     <row r="39">
@@ -2400,7 +2400,7 @@
         <v>49.8971648278211</v>
       </c>
       <c r="L39">
-        <v>76.94458241022249</v>
+        <v>76.9445824102225</v>
       </c>
       <c r="M39">
         <v>62.7939992943961</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>93.957083378193</v>
+        <v>93.95708337819301</v>
       </c>
       <c r="C46">
         <v>10.10853578319</v>
@@ -3024,13 +3024,13 @@
         <v>1.29783881209935</v>
       </c>
       <c r="L51">
-        <v>0.9554974527954569</v>
+        <v>0.955497452795457</v>
       </c>
       <c r="M51">
         <v>0.445082781140632</v>
       </c>
       <c r="N51">
-        <v>0.622526649088683</v>
+        <v>0.6225266490886831</v>
       </c>
       <c r="O51">
         <v>245.465148892382</v>
@@ -3128,7 +3128,7 @@
         <v>88.65450851104831</v>
       </c>
       <c r="L53">
-        <v>72.2534800332111</v>
+        <v>72.25348003321111</v>
       </c>
       <c r="M53">
         <v>42.3424518261723</v>
@@ -3376,7 +3376,7 @@
         <v>2726.45476932073</v>
       </c>
       <c r="H58">
-        <v>9194.247060740759</v>
+        <v>9194.24706074076</v>
       </c>
       <c r="I58">
         <v>11265.2436792093</v>
@@ -3422,7 +3422,7 @@
         <v>5.99088844489751</v>
       </c>
       <c r="F59">
-        <v>0.7644160330284659</v>
+        <v>0.764416033028466</v>
       </c>
       <c r="G59">
         <v>2.31102521613257</v>
@@ -3437,7 +3437,7 @@
         <v>6.95085276544489</v>
       </c>
       <c r="K59">
-        <v>0.817747384169987</v>
+        <v>0.8177473841699871</v>
       </c>
       <c r="L59">
         <v>0.746638915981292</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>874.707766949602</v>
+        <v>874.7077669496021</v>
       </c>
       <c r="C76">
         <v>49.4888683639171</v>
@@ -4361,7 +4361,7 @@
         <v>471.244223644789</v>
       </c>
       <c r="G77">
-        <v>97.60710145244749</v>
+        <v>97.6071014524475</v>
       </c>
       <c r="H77">
         <v>301.626361880551</v>
@@ -4566,7 +4566,7 @@
         <v>105.825033010194</v>
       </c>
       <c r="F81">
-        <v>92.75627893363369</v>
+        <v>92.7562789336337</v>
       </c>
       <c r="G81">
         <v>11.7937536788469</v>
@@ -4664,7 +4664,7 @@
         <v>1333.67687016986</v>
       </c>
       <c r="D83">
-        <v>676.6882406540529</v>
+        <v>676.688240654053</v>
       </c>
       <c r="E83">
         <v>898.610454235748</v>
@@ -4847,7 +4847,7 @@
         <v>77.4264664756075</v>
       </c>
       <c r="M86">
-        <v>85.2813253934227</v>
+        <v>85.28132539342271</v>
       </c>
       <c r="N86">
         <v>31.419435671261</v>
@@ -4948,7 +4948,7 @@
         <v>259.322291411764</v>
       </c>
       <c r="L88">
-        <v>743.694872045026</v>
+        <v>743.6948720450261</v>
       </c>
       <c r="M88">
         <v>136.723358355628</v>

--- a/exercise_OECD_data/2-Final_Data/L_2017.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2017.xlsx
@@ -3049,46 +3049,46 @@
         <v>6625.24554519752</v>
       </c>
       <c r="C52">
-        <v>274.554853518195</v>
+        <v>272.62849969426</v>
       </c>
       <c r="D52">
-        <v>38.9902870029789</v>
+        <v>38.7167202184109</v>
       </c>
       <c r="E52">
-        <v>118.795851286914</v>
+        <v>117.962346289782</v>
       </c>
       <c r="F52">
-        <v>255.975612107053</v>
+        <v>267.176155236857</v>
       </c>
       <c r="G52">
-        <v>24.2154746093997</v>
+        <v>57.0844113295133</v>
       </c>
       <c r="H52">
-        <v>34.6827648347356</v>
+        <v>34.4394208333169</v>
       </c>
       <c r="I52">
-        <v>34.9871191561406</v>
+        <v>34.741639719477</v>
       </c>
       <c r="J52">
-        <v>137.352379688996</v>
+        <v>136.388676886259</v>
       </c>
       <c r="K52">
-        <v>69.6698839908762</v>
+        <v>69.1810605527939</v>
       </c>
       <c r="L52">
-        <v>54.4498966197195</v>
+        <v>54.0678608799677</v>
       </c>
       <c r="M52">
-        <v>92.74289424455409</v>
+        <v>92.09218409799691</v>
       </c>
       <c r="N52">
-        <v>108.714682215599</v>
+        <v>107.951909526935</v>
       </c>
       <c r="O52">
-        <v>10846.5338802138</v>
+        <v>10811.6032425038</v>
       </c>
       <c r="P52">
-        <v>337.578911058093</v>
+        <v>335.210362777618</v>
       </c>
     </row>
     <row r="53">
@@ -3101,46 +3101,46 @@
         <v>2862.57042600437</v>
       </c>
       <c r="C53">
-        <v>91.51217923566131</v>
+        <v>90.5977943690947</v>
       </c>
       <c r="D53">
-        <v>22.5833822633813</v>
+        <v>22.3577302993477</v>
       </c>
       <c r="E53">
-        <v>69.03999038568909</v>
+        <v>68.35014644443611</v>
       </c>
       <c r="F53">
-        <v>7.12749779952113</v>
+        <v>8.399285188775121</v>
       </c>
       <c r="G53">
-        <v>16.2119996750418</v>
+        <v>35.3474505126565</v>
       </c>
       <c r="H53">
-        <v>33.3469046813789</v>
+        <v>33.0137041692485</v>
       </c>
       <c r="I53">
-        <v>35.6597276802875</v>
+        <v>35.3034175627809</v>
       </c>
       <c r="J53">
-        <v>122.835363792995</v>
+        <v>121.607999319002</v>
       </c>
       <c r="K53">
-        <v>88.65450851104831</v>
+        <v>87.76867733958591</v>
       </c>
       <c r="L53">
-        <v>72.25348003321111</v>
+        <v>71.5315270729499</v>
       </c>
       <c r="M53">
-        <v>42.3424518261723</v>
+        <v>41.9193682815933</v>
       </c>
       <c r="N53">
-        <v>50.9710607067158</v>
+        <v>50.4617605574642</v>
       </c>
       <c r="O53">
-        <v>3525.96537788416</v>
+        <v>3513.93948244942</v>
       </c>
       <c r="P53">
-        <v>209.61070361743</v>
+        <v>207.516284526343</v>
       </c>
     </row>
     <row r="54">
@@ -3153,46 +3153,46 @@
         <v>4175.9372942171</v>
       </c>
       <c r="C54">
-        <v>113.224073112595</v>
+        <v>111.226570833125</v>
       </c>
       <c r="D54">
-        <v>28.9006825276897</v>
+        <v>28.3908158744217</v>
       </c>
       <c r="E54">
-        <v>48.0488713629079</v>
+        <v>47.2011918241414</v>
       </c>
       <c r="F54">
-        <v>2.85438839779651</v>
+        <v>7.94475505950895</v>
       </c>
       <c r="G54">
-        <v>28.6628168278733</v>
+        <v>79.3307159618614</v>
       </c>
       <c r="H54">
-        <v>26.5220255295259</v>
+        <v>26.0541232098602</v>
       </c>
       <c r="I54">
-        <v>32.2308023251189</v>
+        <v>31.6621856048077</v>
       </c>
       <c r="J54">
-        <v>102.40118377095</v>
+        <v>100.594619209371</v>
       </c>
       <c r="K54">
-        <v>39.0099747698856</v>
+        <v>38.3217596988079</v>
       </c>
       <c r="L54">
-        <v>31.9929366253026</v>
+        <v>31.4285163383516</v>
       </c>
       <c r="M54">
-        <v>49.5949984117144</v>
+        <v>48.7200420561064</v>
       </c>
       <c r="N54">
-        <v>26.8788240792505</v>
+        <v>26.4046271095445</v>
       </c>
       <c r="O54">
-        <v>4180.84647282253</v>
+        <v>4135.12817384118</v>
       </c>
       <c r="P54">
-        <v>70.2893142957391</v>
+        <v>69.049268237791</v>
       </c>
     </row>
     <row r="55">
@@ -3205,46 +3205,46 @@
         <v>2542.71689744197</v>
       </c>
       <c r="C55">
-        <v>112.59418164102</v>
+        <v>111.049698038967</v>
       </c>
       <c r="D55">
-        <v>155.367552902028</v>
+        <v>153.236335868866</v>
       </c>
       <c r="E55">
-        <v>42.1524831320207</v>
+        <v>41.5742665844659</v>
       </c>
       <c r="F55">
-        <v>26.1549124335852</v>
+        <v>28.6187874232767</v>
       </c>
       <c r="G55">
-        <v>8.789447575974849</v>
+        <v>27.8915965693252</v>
       </c>
       <c r="H55">
-        <v>34.0615347011564</v>
+        <v>33.5943037924188</v>
       </c>
       <c r="I55">
-        <v>24.89373342158</v>
+        <v>24.5522596215741</v>
       </c>
       <c r="J55">
-        <v>73.43942400676561</v>
+        <v>72.43203637385651</v>
       </c>
       <c r="K55">
-        <v>35.6525605316861</v>
+        <v>35.1635051088405</v>
       </c>
       <c r="L55">
-        <v>33.0622928685676</v>
+        <v>32.6087688193003</v>
       </c>
       <c r="M55">
-        <v>22.5168960528009</v>
+        <v>22.2080259476514</v>
       </c>
       <c r="N55">
-        <v>43.1905304726711</v>
+        <v>42.5980747604239</v>
       </c>
       <c r="O55">
-        <v>1927.75092535804</v>
+        <v>1922.69261784785</v>
       </c>
       <c r="P55">
-        <v>626.495524902101</v>
+        <v>617.9017232431841</v>
       </c>
     </row>
     <row r="56">
@@ -3257,46 +3257,46 @@
         <v>51917.9139068063</v>
       </c>
       <c r="C56">
-        <v>2245.82337363074</v>
+        <v>2235.23884030433</v>
       </c>
       <c r="D56">
-        <v>2797.0082170463</v>
+        <v>2783.82595746384</v>
       </c>
       <c r="E56">
-        <v>779.098926940241</v>
+        <v>775.427044879705</v>
       </c>
       <c r="F56">
-        <v>288.372632934976</v>
+        <v>326.941448443575</v>
       </c>
       <c r="G56">
-        <v>95.3471771754527</v>
+        <v>491.106127181041</v>
       </c>
       <c r="H56">
-        <v>452.425556924804</v>
+        <v>450.293281768522</v>
       </c>
       <c r="I56">
-        <v>650.363994137207</v>
+        <v>647.298837967285</v>
       </c>
       <c r="J56">
-        <v>989.8783702006029</v>
+        <v>985.213087649224</v>
       </c>
       <c r="K56">
-        <v>440.250444148011</v>
+        <v>438.175550123502</v>
       </c>
       <c r="L56">
-        <v>453.558810380582</v>
+        <v>451.421194217029</v>
       </c>
       <c r="M56">
-        <v>749.755926731524</v>
+        <v>746.222337809822</v>
       </c>
       <c r="N56">
-        <v>1216.04555254743</v>
+        <v>1210.31434731175</v>
       </c>
       <c r="O56">
-        <v>68037.45974714241</v>
+        <v>67716.8001758718</v>
       </c>
       <c r="P56">
-        <v>13343.87705733</v>
+        <v>13280.9875562788</v>
       </c>
     </row>
     <row r="57">
@@ -3309,46 +3309,46 @@
         <v>10106.4771631115</v>
       </c>
       <c r="C57">
-        <v>318.318689270546</v>
+        <v>316.612489360772</v>
       </c>
       <c r="D57">
-        <v>61.5512456559765</v>
+        <v>61.221328710084</v>
       </c>
       <c r="E57">
-        <v>271.49860468646</v>
+        <v>270.043362156148</v>
       </c>
       <c r="F57">
-        <v>313.917759190281</v>
+        <v>327.221880277671</v>
       </c>
       <c r="G57">
-        <v>53.4781072165626</v>
+        <v>97.2060978807108</v>
       </c>
       <c r="H57">
-        <v>126.154657013576</v>
+        <v>125.478463401108</v>
       </c>
       <c r="I57">
-        <v>69.78911867598779</v>
+        <v>69.4150464270068</v>
       </c>
       <c r="J57">
-        <v>421.173699040882</v>
+        <v>418.91619248684</v>
       </c>
       <c r="K57">
-        <v>167.421813443359</v>
+        <v>166.524426351053</v>
       </c>
       <c r="L57">
-        <v>177.374527687784</v>
+        <v>176.423793680206</v>
       </c>
       <c r="M57">
-        <v>210.20590080281</v>
+        <v>209.079189424959</v>
       </c>
       <c r="N57">
-        <v>357.101099109652</v>
+        <v>355.187024053371</v>
       </c>
       <c r="O57">
-        <v>16312.1588815387</v>
+        <v>16268.980969815</v>
       </c>
       <c r="P57">
-        <v>404.131677880056</v>
+        <v>401.965517187715</v>
       </c>
     </row>
     <row r="58">
@@ -3361,46 +3361,46 @@
         <v>345684.064613854</v>
       </c>
       <c r="C58">
-        <v>15907.8083811737</v>
+        <v>15736.1178234692</v>
       </c>
       <c r="D58">
-        <v>31769.5239705147</v>
+        <v>31426.6403276014</v>
       </c>
       <c r="E58">
-        <v>14815.8917921702</v>
+        <v>14655.9861242282</v>
       </c>
       <c r="F58">
-        <v>18837.6365926028</v>
+        <v>19526.612352054</v>
       </c>
       <c r="G58">
-        <v>2726.45476932073</v>
+        <v>9989.809772911511</v>
       </c>
       <c r="H58">
-        <v>9194.24706074076</v>
+        <v>9095.014949836081</v>
       </c>
       <c r="I58">
-        <v>11265.2436792093</v>
+        <v>11143.6596166146</v>
       </c>
       <c r="J58">
-        <v>15237.6264270734</v>
+        <v>15073.1690413249</v>
       </c>
       <c r="K58">
-        <v>14714.2002191411</v>
+        <v>14555.3920928885</v>
       </c>
       <c r="L58">
-        <v>24261.6807617448</v>
+        <v>23999.828129313</v>
       </c>
       <c r="M58">
-        <v>9027.84178633396</v>
+        <v>8930.40566226061</v>
       </c>
       <c r="N58">
-        <v>6117.36616227552</v>
+        <v>6051.34235918984</v>
       </c>
       <c r="O58">
-        <v>404273.641406033</v>
+        <v>400103.824702511</v>
       </c>
       <c r="P58">
-        <v>198153.43901309</v>
+        <v>196014.799067221</v>
       </c>
     </row>
     <row r="59">
@@ -3413,46 +3413,46 @@
         <v>341.935404235637</v>
       </c>
       <c r="C59">
-        <v>19.8748168587401</v>
+        <v>19.7178042540481</v>
       </c>
       <c r="D59">
-        <v>1.72438035357584</v>
+        <v>1.71075761417054</v>
       </c>
       <c r="E59">
-        <v>5.99088844489751</v>
+        <v>5.94355995851003</v>
       </c>
       <c r="F59">
-        <v>0.764416033028466</v>
+        <v>0.828923792433149</v>
       </c>
       <c r="G59">
-        <v>2.31102521613257</v>
+        <v>3.45678858121058</v>
       </c>
       <c r="H59">
-        <v>1.59994053424563</v>
+        <v>1.58730087912731</v>
       </c>
       <c r="I59">
-        <v>3.60875476057624</v>
+        <v>3.58024531625382</v>
       </c>
       <c r="J59">
-        <v>6.95085276544489</v>
+        <v>6.89594048598641</v>
       </c>
       <c r="K59">
-        <v>0.8177473841699871</v>
+        <v>0.811287115998402</v>
       </c>
       <c r="L59">
-        <v>0.746638915981292</v>
+        <v>0.74074041025941</v>
       </c>
       <c r="M59">
-        <v>0.408873692084993</v>
+        <v>0.405643557999201</v>
       </c>
       <c r="N59">
-        <v>3.19988106849125</v>
+        <v>3.17460175825461</v>
       </c>
       <c r="O59">
-        <v>490.47065933152</v>
+        <v>489.823414622252</v>
       </c>
       <c r="P59">
-        <v>26.3456874639113</v>
+        <v>26.1375544762963</v>
       </c>
     </row>
     <row r="60">
@@ -3465,46 +3465,46 @@
         <v>3480.29042422404</v>
       </c>
       <c r="C60">
-        <v>142.028211904227</v>
+        <v>139.829730561013</v>
       </c>
       <c r="D60">
-        <v>67.7480467834438</v>
+        <v>66.69936205457449</v>
       </c>
       <c r="E60">
-        <v>118.587433079088</v>
+        <v>116.751795949897</v>
       </c>
       <c r="F60">
-        <v>36.1307795534068</v>
+        <v>38.2845852837523</v>
       </c>
       <c r="G60">
-        <v>13.1663010236991</v>
+        <v>46.6582916012834</v>
       </c>
       <c r="H60">
-        <v>101.644751141615</v>
+        <v>100.071372965375</v>
       </c>
       <c r="I60">
-        <v>67.5098966357283</v>
+        <v>66.4648982776836</v>
       </c>
       <c r="J60">
-        <v>274.235565335996</v>
+        <v>269.990621560717</v>
       </c>
       <c r="K60">
-        <v>149.921188228511</v>
+        <v>147.600530023682</v>
       </c>
       <c r="L60">
-        <v>175.913575779173</v>
+        <v>173.190576530057</v>
       </c>
       <c r="M60">
-        <v>214.16502569557</v>
+        <v>210.849925075434</v>
       </c>
       <c r="N60">
-        <v>87.53719001027829</v>
+        <v>86.18218542003029</v>
       </c>
       <c r="O60">
-        <v>3683.25286553417</v>
+        <v>3672.2051684901</v>
       </c>
       <c r="P60">
-        <v>189.817008212468</v>
+        <v>186.878795123781</v>
       </c>
     </row>
     <row r="61">
@@ -3517,46 +3517,46 @@
         <v>27393.8855022291</v>
       </c>
       <c r="C61">
-        <v>990.204769588016</v>
+        <v>975.655348922589</v>
       </c>
       <c r="D61">
-        <v>168.772765474549</v>
+        <v>166.292928942577</v>
       </c>
       <c r="E61">
-        <v>491.363747584129</v>
+        <v>484.143970339149</v>
       </c>
       <c r="F61">
-        <v>65.1591056578954</v>
+        <v>82.093977579247</v>
       </c>
       <c r="G61">
-        <v>135.659121615618</v>
+        <v>497.82629993569</v>
       </c>
       <c r="H61">
-        <v>452.909193425371</v>
+        <v>446.25444222565</v>
       </c>
       <c r="I61">
-        <v>260.636422631581</v>
+        <v>256.806801658157</v>
       </c>
       <c r="J61">
-        <v>1248.70482809967</v>
+        <v>1230.35717679666</v>
       </c>
       <c r="K61">
-        <v>1205.97754570105</v>
+        <v>1188.257701115</v>
       </c>
       <c r="L61">
-        <v>917.568389510362</v>
+        <v>904.086240263758</v>
       </c>
       <c r="M61">
-        <v>1044.68205464626</v>
+        <v>1029.33218041671</v>
       </c>
       <c r="N61">
-        <v>435.818280465923</v>
+        <v>429.414651952984</v>
       </c>
       <c r="O61">
-        <v>33862.4394829662</v>
+        <v>33599.5915415369</v>
       </c>
       <c r="P61">
-        <v>695.386521037539</v>
+        <v>685.1689667191</v>
       </c>
     </row>
     <row r="62">
@@ -3569,46 +3569,46 @@
         <v>1755.57848489399</v>
       </c>
       <c r="C62">
-        <v>55.411732011994</v>
+        <v>54.9432239012085</v>
       </c>
       <c r="D62">
-        <v>5.43252274627392</v>
+        <v>5.38659057854985</v>
       </c>
       <c r="E62">
-        <v>21.7300909850957</v>
+        <v>21.5463623141994</v>
       </c>
       <c r="F62">
-        <v>4.34601819701914</v>
+        <v>5.38659057854985</v>
       </c>
       <c r="G62">
-        <v>22.8165955343505</v>
+        <v>34.4741797027191</v>
       </c>
       <c r="H62">
-        <v>14.1245591403122</v>
+        <v>14.0051355042296</v>
       </c>
       <c r="I62">
-        <v>13.0380545910574</v>
+        <v>12.9278173885196</v>
       </c>
       <c r="J62">
-        <v>42.3736774209366</v>
+        <v>42.0154065126888</v>
       </c>
       <c r="K62">
-        <v>55.411732011994</v>
+        <v>54.9432239012085</v>
       </c>
       <c r="L62">
-        <v>27.1626137313696</v>
+        <v>26.9329528927493</v>
       </c>
       <c r="M62">
-        <v>5.43252274627392</v>
+        <v>5.38659057854985</v>
       </c>
       <c r="N62">
-        <v>19.5570818865861</v>
+        <v>19.3917260827795</v>
       </c>
       <c r="O62">
-        <v>2438.11620852774</v>
+        <v>2428.27503281027</v>
       </c>
       <c r="P62">
-        <v>78.2283275463445</v>
+        <v>77.5669043311179</v>
       </c>
     </row>
     <row r="63">
@@ -3621,46 +3621,46 @@
         <v>14184.8712670647</v>
       </c>
       <c r="C63">
-        <v>522.876017255598</v>
+        <v>516.712093650096</v>
       </c>
       <c r="D63">
-        <v>191.70114970959</v>
+        <v>189.441280824995</v>
       </c>
       <c r="E63">
-        <v>198.560512881873</v>
+        <v>196.219782398771</v>
       </c>
       <c r="F63">
-        <v>37.3053084808367</v>
+        <v>47.6873531769134</v>
       </c>
       <c r="G63">
-        <v>49.5799583680797</v>
+        <v>154.002798912975</v>
       </c>
       <c r="H63">
-        <v>106.139619613219</v>
+        <v>104.888392773161</v>
       </c>
       <c r="I63">
-        <v>112.276944556841</v>
+        <v>110.953367865487</v>
       </c>
       <c r="J63">
-        <v>365.110664293092</v>
+        <v>360.806557453255</v>
       </c>
       <c r="K63">
-        <v>138.751679607757</v>
+        <v>137.116005518656</v>
       </c>
       <c r="L63">
-        <v>117.932910681355</v>
+        <v>116.542658636846</v>
       </c>
       <c r="M63">
-        <v>229.24713759998</v>
+        <v>226.544657860399</v>
       </c>
       <c r="N63">
-        <v>140.316095769857</v>
+        <v>138.661979561798</v>
       </c>
       <c r="O63">
-        <v>16497.7311469785</v>
+        <v>16418.2443381662</v>
       </c>
       <c r="P63">
-        <v>873.064558156356</v>
+        <v>862.772437153383</v>
       </c>
     </row>
     <row r="64">
@@ -3673,46 +3673,46 @@
         <v>379.497474360883</v>
       </c>
       <c r="C64">
-        <v>19.9991042524274</v>
+        <v>19.7250464080713</v>
       </c>
       <c r="D64">
-        <v>15.5414725817056</v>
+        <v>15.3284999195253</v>
       </c>
       <c r="E64">
-        <v>24.8181655180726</v>
+        <v>24.4780696389319</v>
       </c>
       <c r="F64">
-        <v>4.81906126564516</v>
+        <v>7.24836042706234</v>
       </c>
       <c r="G64">
-        <v>0.240953063282258</v>
+        <v>3.92124416545996</v>
       </c>
       <c r="H64">
-        <v>3.61429594923387</v>
+        <v>3.56476742314542</v>
       </c>
       <c r="I64">
-        <v>4.93953779728628</v>
+        <v>4.87184881163207</v>
       </c>
       <c r="J64">
-        <v>19.9991042524274</v>
+        <v>19.7250464080713</v>
       </c>
       <c r="K64">
-        <v>2.89143675938709</v>
+        <v>2.85181393851633</v>
       </c>
       <c r="L64">
-        <v>13.131941948883</v>
+        <v>12.951988304095</v>
       </c>
       <c r="M64">
-        <v>5.90335005041532</v>
+        <v>5.82245345780418</v>
       </c>
       <c r="N64">
-        <v>13.975277670371</v>
+        <v>13.7837673694956</v>
       </c>
       <c r="O64">
-        <v>510.218111500181</v>
+        <v>506.196974086649</v>
       </c>
       <c r="P64">
-        <v>27.5891257458185</v>
+        <v>27.2110579966767</v>
       </c>
     </row>
     <row r="65">
@@ -3725,46 +3725,46 @@
         <v>1770.56725271354</v>
       </c>
       <c r="C65">
-        <v>41.6768806335258</v>
+        <v>41.2217200188196</v>
       </c>
       <c r="D65">
-        <v>12.0961922683056</v>
+        <v>11.9640876044068</v>
       </c>
       <c r="E65">
-        <v>57.1819998138084</v>
+        <v>56.5575050390138</v>
       </c>
       <c r="F65">
-        <v>7.14774997672605</v>
+        <v>10.1150922473621</v>
       </c>
       <c r="G65">
-        <v>5.0584076758369</v>
+        <v>18.4899535704468</v>
       </c>
       <c r="H65">
-        <v>15.3951537960253</v>
+        <v>15.2270205874268</v>
       </c>
       <c r="I65">
-        <v>16.3848422543413</v>
+        <v>16.2059004823328</v>
       </c>
       <c r="J65">
-        <v>63.3400613322186</v>
+        <v>62.6483132739845</v>
       </c>
       <c r="K65">
-        <v>50.8040075268837</v>
+        <v>50.2491679385084</v>
       </c>
       <c r="L65">
-        <v>46.2954267723334</v>
+        <v>45.7898261950477</v>
       </c>
       <c r="M65">
-        <v>15.5051191802827</v>
+        <v>15.3357850201941</v>
       </c>
       <c r="N65">
-        <v>15.3951537960253</v>
+        <v>15.2270205874268</v>
       </c>
       <c r="O65">
-        <v>2049.534831788</v>
+        <v>2038.13670562708</v>
       </c>
       <c r="P65">
-        <v>123.821022673747</v>
+        <v>122.468751296018</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>22314.9873921496</v>
+        <v>22314.9873921495</v>
       </c>
       <c r="C66">
-        <v>684.033607216467</v>
+        <v>676.868779122923</v>
       </c>
       <c r="D66">
-        <v>127.340687999112</v>
+        <v>126.006873213987</v>
       </c>
       <c r="E66">
-        <v>225.381748670994</v>
+        <v>223.021014538031</v>
       </c>
       <c r="F66">
-        <v>21.4112661237444</v>
+        <v>26.7625217445637</v>
       </c>
       <c r="G66">
-        <v>51.8378021943286</v>
+        <v>185.107442066565</v>
       </c>
       <c r="H66">
-        <v>181.43230768015</v>
+        <v>179.531916703115</v>
       </c>
       <c r="I66">
-        <v>118.325418052272</v>
+        <v>117.086032632466</v>
       </c>
       <c r="J66">
-        <v>446.255862368568</v>
+        <v>441.581608785301</v>
       </c>
       <c r="K66">
-        <v>193.828303857055</v>
+        <v>191.798072502706</v>
       </c>
       <c r="L66">
-        <v>178.051581450085</v>
+        <v>176.186601485044</v>
       </c>
       <c r="M66">
-        <v>227.635566157704</v>
+        <v>225.251224683411</v>
       </c>
       <c r="N66">
-        <v>144.244319149436</v>
+        <v>142.73344930434</v>
       </c>
       <c r="O66">
-        <v>24113.5932903097</v>
+        <v>24010.4424251644</v>
       </c>
       <c r="P66">
-        <v>859.831371179842</v>
+        <v>850.825170462587</v>
       </c>
     </row>
     <row r="67">
@@ -3829,46 +3829,46 @@
         <v>19892.3173687043</v>
       </c>
       <c r="C67">
-        <v>469.922260417411</v>
+        <v>466.03166765364</v>
       </c>
       <c r="D67">
-        <v>125.236005832513</v>
+        <v>124.19914859229</v>
       </c>
       <c r="E67">
-        <v>268.85527857622</v>
+        <v>266.629364867853</v>
       </c>
       <c r="F67">
-        <v>85.02260946427479</v>
+        <v>99.13143052779149</v>
       </c>
       <c r="G67">
-        <v>54.000846551634</v>
+        <v>167.497934340061</v>
       </c>
       <c r="H67">
-        <v>186.130577475845</v>
+        <v>184.589560293129</v>
       </c>
       <c r="I67">
-        <v>93.0652887379224</v>
+        <v>92.29478014656441</v>
       </c>
       <c r="J67">
-        <v>415.921413865777</v>
+        <v>412.477906334029</v>
       </c>
       <c r="K67">
-        <v>224.046065480184</v>
+        <v>222.191137389877</v>
       </c>
       <c r="L67">
-        <v>243.578286573328</v>
+        <v>241.561646803354</v>
       </c>
       <c r="M67">
-        <v>313.664491672257</v>
+        <v>311.067592345828</v>
       </c>
       <c r="N67">
-        <v>187.279531657795</v>
+        <v>185.729002023333</v>
       </c>
       <c r="O67">
-        <v>30010.6832325251</v>
+        <v>29908.0665344077</v>
       </c>
       <c r="P67">
-        <v>490.603435692505</v>
+        <v>486.541618797321</v>
       </c>
     </row>
     <row r="68">
@@ -3881,46 +3881,46 @@
         <v>3491.24546067428</v>
       </c>
       <c r="C68">
-        <v>113.118977653027</v>
+        <v>112.178364890014</v>
       </c>
       <c r="D68">
-        <v>29.5317262578871</v>
+        <v>29.2861625230626</v>
       </c>
       <c r="E68">
-        <v>33.7229101154475</v>
+        <v>33.4424956322309</v>
       </c>
       <c r="F68">
-        <v>10.424226517522</v>
+        <v>13.5347257657531</v>
       </c>
       <c r="G68">
-        <v>12.7454975770939</v>
+        <v>22.9024611579555</v>
       </c>
       <c r="H68">
-        <v>14.529437372876</v>
+        <v>14.4086214451167</v>
       </c>
       <c r="I68">
-        <v>18.0543304633371</v>
+        <v>17.904204162571</v>
       </c>
       <c r="J68">
-        <v>53.06683561188</v>
+        <v>52.6255715206999</v>
       </c>
       <c r="K68">
-        <v>13.8416533552251</v>
+        <v>13.7265565246378</v>
       </c>
       <c r="L68">
-        <v>10.53169277028</v>
+        <v>10.4441190948331</v>
       </c>
       <c r="M68">
-        <v>7.08202605674948</v>
+        <v>7.02313722805614</v>
       </c>
       <c r="N68">
-        <v>26.3292319256999</v>
+        <v>26.1102977370828</v>
       </c>
       <c r="O68">
-        <v>2938.47124241142</v>
+        <v>2932.22906493192</v>
       </c>
       <c r="P68">
-        <v>525.058617724835</v>
+        <v>520.692623199343</v>
       </c>
     </row>
     <row r="69">
@@ -3933,46 +3933,46 @@
         <v>3499.89317017586</v>
       </c>
       <c r="C69">
-        <v>144.839951269495</v>
+        <v>143.077031337712</v>
       </c>
       <c r="D69">
-        <v>64.0863379085925</v>
+        <v>63.3063108410343</v>
       </c>
       <c r="E69">
-        <v>65.8725484567039</v>
+        <v>65.07078052172599</v>
       </c>
       <c r="F69">
-        <v>7.56725684909369</v>
+        <v>16.5955526724519</v>
       </c>
       <c r="G69">
-        <v>24.8259128207109</v>
+        <v>43.074519975265</v>
       </c>
       <c r="H69">
-        <v>55.7225277069626</v>
+        <v>55.0443007821197</v>
       </c>
       <c r="I69">
-        <v>30.0397165827658</v>
+        <v>29.6740880759575</v>
       </c>
       <c r="J69">
-        <v>109.803672748093</v>
+        <v>108.467196992793</v>
       </c>
       <c r="K69">
-        <v>71.0863522187589</v>
+        <v>70.22112445455601</v>
       </c>
       <c r="L69">
-        <v>155.931353254052</v>
+        <v>154.033434287413</v>
       </c>
       <c r="M69">
-        <v>139.433043664401</v>
+        <v>137.735933925889</v>
       </c>
       <c r="N69">
-        <v>59.2466728424257</v>
+        <v>58.5255517737547</v>
       </c>
       <c r="O69">
-        <v>3235.44282112948</v>
+        <v>3223.16153455656</v>
       </c>
       <c r="P69">
-        <v>335.964479917418</v>
+        <v>331.875287171728</v>
       </c>
     </row>
     <row r="70">
@@ -3985,46 +3985,46 @@
         <v>62399.6834452084</v>
       </c>
       <c r="C70">
-        <v>2041.27619486195</v>
+        <v>2033.54887145456</v>
       </c>
       <c r="D70">
-        <v>3043.36277140856</v>
+        <v>3031.84201373751</v>
       </c>
       <c r="E70">
-        <v>2622.45647828323</v>
+        <v>2612.52907630768</v>
       </c>
       <c r="F70">
-        <v>1092.31320706927</v>
+        <v>1296.54121594341</v>
       </c>
       <c r="G70">
-        <v>101.534839702058</v>
+        <v>368.065948586225</v>
       </c>
       <c r="H70">
-        <v>1553.42620661864</v>
+        <v>1547.54565663806</v>
       </c>
       <c r="I70">
-        <v>1294.87131906783</v>
+        <v>1289.96953778092</v>
       </c>
       <c r="J70">
-        <v>2342.89773873117</v>
+        <v>2334.02861627572</v>
       </c>
       <c r="K70">
-        <v>102.698129966742</v>
+        <v>102.309362554677</v>
       </c>
       <c r="L70">
-        <v>195.69983847022</v>
+        <v>194.959009793316</v>
       </c>
       <c r="M70">
-        <v>460.382633907956</v>
+        <v>458.639839124815</v>
       </c>
       <c r="N70">
-        <v>652.201723596925</v>
+        <v>649.732790848981</v>
       </c>
       <c r="O70">
-        <v>69150.6521890789</v>
+        <v>68888.8799435385</v>
       </c>
       <c r="P70">
-        <v>40897.4143012268</v>
+        <v>40742.5956894058</v>
       </c>
     </row>
     <row r="71">
@@ -4037,46 +4037,46 @@
         <v>467904.641085641</v>
       </c>
       <c r="C71">
-        <v>10151.7206147976</v>
+        <v>10114.950804465</v>
       </c>
       <c r="D71">
-        <v>15983.6245592613</v>
+        <v>15925.7314329854</v>
       </c>
       <c r="E71">
-        <v>8407.032453682999</v>
+        <v>8376.58195169313</v>
       </c>
       <c r="F71">
-        <v>1999.23556759026</v>
+        <v>2173.3351158445</v>
       </c>
       <c r="G71">
-        <v>222.903655483832</v>
+        <v>1729.42869749275</v>
       </c>
       <c r="H71">
-        <v>1043.95220244177</v>
+        <v>1040.17097894906</v>
       </c>
       <c r="I71">
-        <v>4471.69646978461</v>
+        <v>4455.49986259873</v>
       </c>
       <c r="J71">
-        <v>3117.58156526877</v>
+        <v>3106.28959938428</v>
       </c>
       <c r="K71">
-        <v>1832.48954704453</v>
+        <v>1825.85221967532</v>
       </c>
       <c r="L71">
-        <v>1663.69444600956</v>
+        <v>1657.66849912309</v>
       </c>
       <c r="M71">
-        <v>1691.20869114175</v>
+        <v>1685.08308690523</v>
       </c>
       <c r="N71">
-        <v>11126.7483392956</v>
+        <v>11086.4469518188</v>
       </c>
       <c r="O71">
-        <v>189464.915814981</v>
+        <v>188778.668696534</v>
       </c>
       <c r="P71">
-        <v>215046.404227841</v>
+        <v>214267.500257156</v>
       </c>
     </row>
     <row r="72">
@@ -4089,46 +4089,46 @@
         <v>1349.39146383909</v>
       </c>
       <c r="C72">
-        <v>66.4491716825479</v>
+        <v>66.0269648483298</v>
       </c>
       <c r="D72">
-        <v>8.0957075783134</v>
+        <v>8.044268817214549</v>
       </c>
       <c r="E72">
-        <v>20.2392689457835</v>
+        <v>20.1106720430364</v>
       </c>
       <c r="F72">
-        <v>7.43963341676812</v>
+        <v>7.5030641873102</v>
       </c>
       <c r="G72">
-        <v>38.7083755311712</v>
+        <v>41.623556081734</v>
       </c>
       <c r="H72">
-        <v>5.17432074577217</v>
+        <v>5.14144398409126</v>
       </c>
       <c r="I72">
-        <v>7.25395205029304</v>
+        <v>7.20786166190784</v>
       </c>
       <c r="J72">
-        <v>19.1870745357581</v>
+        <v>19.065163098903</v>
       </c>
       <c r="K72">
-        <v>35.774609940865</v>
+        <v>35.5473041005352</v>
       </c>
       <c r="L72">
-        <v>34.0292050959993</v>
+        <v>33.8129892637963</v>
       </c>
       <c r="M72">
-        <v>3.71362732950156</v>
+        <v>3.69003156752961</v>
       </c>
       <c r="N72">
-        <v>13.8270724235108</v>
+        <v>13.7392175364352</v>
       </c>
       <c r="O72">
-        <v>1825.44589257426</v>
+        <v>1824.68370982772</v>
       </c>
       <c r="P72">
-        <v>135.089383489502</v>
+        <v>134.231048321502</v>
       </c>
     </row>
     <row r="73">
@@ -4141,46 +4141,46 @@
         <v>23670.7234319609</v>
       </c>
       <c r="C73">
-        <v>464.321151716196</v>
+        <v>458.403374726747</v>
       </c>
       <c r="D73">
-        <v>529.5665447986891</v>
+        <v>522.817214724863</v>
       </c>
       <c r="E73">
-        <v>300.026059528943</v>
+        <v>296.202224873224</v>
       </c>
       <c r="F73">
-        <v>24.4541788246193</v>
+        <v>42.1986731326238</v>
       </c>
       <c r="G73">
-        <v>64.628901179351</v>
+        <v>179.952995522295</v>
       </c>
       <c r="H73">
-        <v>188.030030458207</v>
+        <v>185.633586136302</v>
       </c>
       <c r="I73">
-        <v>195.941676548525</v>
+        <v>193.444398230561</v>
       </c>
       <c r="J73">
-        <v>704.239250688826</v>
+        <v>695.263715507219</v>
       </c>
       <c r="K73">
-        <v>479.938946595785</v>
+        <v>473.822120679052</v>
       </c>
       <c r="L73">
-        <v>278.448842918984</v>
+        <v>274.900010070698</v>
       </c>
       <c r="M73">
-        <v>250.912204578657</v>
+        <v>247.71432641795</v>
       </c>
       <c r="N73">
-        <v>282.250542988358</v>
+        <v>278.653257440667</v>
       </c>
       <c r="O73">
-        <v>18611.3768125942</v>
+        <v>18536.9844429223</v>
       </c>
       <c r="P73">
-        <v>930.183533190246</v>
+        <v>918.328336225103</v>
       </c>
     </row>
     <row r="74">
@@ -4193,46 +4193,46 @@
         <v>42413.3754558026</v>
       </c>
       <c r="C74">
-        <v>1573.81892081227</v>
+        <v>1560.19277604571</v>
       </c>
       <c r="D74">
-        <v>678.769174222136</v>
+        <v>672.89238184868</v>
       </c>
       <c r="E74">
-        <v>969.971086165362</v>
+        <v>961.573063835928</v>
       </c>
       <c r="F74">
-        <v>44.6384823648527</v>
+        <v>72.07065067887871</v>
       </c>
       <c r="G74">
-        <v>155.662932609108</v>
+        <v>482.697426812876</v>
       </c>
       <c r="H74">
-        <v>671.423469718203</v>
+        <v>665.610276550259</v>
       </c>
       <c r="I74">
-        <v>389.915441459793</v>
+        <v>386.539548476307</v>
       </c>
       <c r="J74">
-        <v>1710.71949790238</v>
+        <v>1695.9080661518</v>
       </c>
       <c r="K74">
-        <v>1020.38943561476</v>
+        <v>1011.55489055745</v>
       </c>
       <c r="L74">
-        <v>1923.7656986517</v>
+        <v>1907.10971011317</v>
       </c>
       <c r="M74">
-        <v>1283.91514232285</v>
+        <v>1272.79898825588</v>
       </c>
       <c r="N74">
-        <v>430.774913103568</v>
+        <v>427.045258281067</v>
       </c>
       <c r="O74">
-        <v>51755.2650054571</v>
+        <v>51522.2009741494</v>
       </c>
       <c r="P74">
-        <v>3368.53399960608</v>
+        <v>3339.3691882528</v>
       </c>
     </row>
     <row r="75">
@@ -4245,46 +4245,46 @@
         <v>15792.0932366477</v>
       </c>
       <c r="C75">
-        <v>406.817850864272</v>
+        <v>401.934097433497</v>
       </c>
       <c r="D75">
-        <v>494.459842333615</v>
+        <v>488.523967233132</v>
       </c>
       <c r="E75">
-        <v>234.218711181394</v>
+        <v>231.406970172848</v>
       </c>
       <c r="F75">
-        <v>17.3825459980801</v>
+        <v>31.018836175947</v>
       </c>
       <c r="G75">
-        <v>78.6610698397778</v>
+        <v>302.235304225298</v>
       </c>
       <c r="H75">
-        <v>97.31831168994</v>
+        <v>96.1500280524761</v>
       </c>
       <c r="I75">
-        <v>54.4079857623062</v>
+        <v>53.7548305810287</v>
       </c>
       <c r="J75">
-        <v>492.966247098965</v>
+        <v>487.048302260971</v>
       </c>
       <c r="K75">
-        <v>509.641300617474</v>
+        <v>503.523175650569</v>
       </c>
       <c r="L75">
-        <v>901.466357859106</v>
+        <v>890.644464452587</v>
       </c>
       <c r="M75">
-        <v>776.634449741397</v>
+        <v>767.3111342813591</v>
       </c>
       <c r="N75">
-        <v>194.550756771248</v>
+        <v>192.215220304933</v>
       </c>
       <c r="O75">
-        <v>21052.3965656134</v>
+        <v>20885.9096167132</v>
       </c>
       <c r="P75">
-        <v>1728.80927285852</v>
+        <v>1708.05532069162</v>
       </c>
     </row>
     <row r="76">
@@ -4297,46 +4297,46 @@
         <v>874.7077669496021</v>
       </c>
       <c r="C76">
-        <v>49.4888683639171</v>
+        <v>48.8496528145976</v>
       </c>
       <c r="D76">
-        <v>34.4064391406307</v>
+        <v>33.9620335273587</v>
       </c>
       <c r="E76">
-        <v>35.2299375200622</v>
+        <v>34.7748953134234</v>
       </c>
       <c r="F76">
-        <v>4.46719668842288</v>
+        <v>6.87035235619027</v>
       </c>
       <c r="G76">
-        <v>0.744532781403813</v>
+        <v>6.61424521811511</v>
       </c>
       <c r="H76">
-        <v>9.55483736134893</v>
+        <v>9.431423736941911</v>
       </c>
       <c r="I76">
-        <v>7.40020461516517</v>
+        <v>7.30462098162207</v>
       </c>
       <c r="J76">
-        <v>15.9397700018725</v>
+        <v>15.7338863521829</v>
       </c>
       <c r="K76">
-        <v>8.765181381072161</v>
+        <v>8.651967229756631</v>
       </c>
       <c r="L76">
-        <v>7.17458862080038</v>
+        <v>7.08191912242628</v>
       </c>
       <c r="M76">
-        <v>3.248870318853</v>
+        <v>3.20690677241945</v>
       </c>
       <c r="N76">
-        <v>35.1058487231616</v>
+        <v>34.6524092908657</v>
       </c>
       <c r="O76">
-        <v>1015.46374823677</v>
+        <v>1011.61206030394</v>
       </c>
       <c r="P76">
-        <v>135.97875980366</v>
+        <v>134.222410537306</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>35422.6073862586</v>
+        <v>35422.6073862585</v>
       </c>
       <c r="C77">
-        <v>2134.83724248316</v>
+        <v>2123.07218174962</v>
       </c>
       <c r="D77">
-        <v>731.274847103477</v>
+        <v>727.244800775885</v>
       </c>
       <c r="E77">
-        <v>448.987577052632</v>
+        <v>446.513212259145</v>
       </c>
       <c r="F77">
-        <v>471.244223644789</v>
+        <v>522.142145892063</v>
       </c>
       <c r="G77">
-        <v>97.6071014524475</v>
+        <v>333.132337206655</v>
       </c>
       <c r="H77">
-        <v>301.626361880551</v>
+        <v>299.964102858767</v>
       </c>
       <c r="I77">
-        <v>480.372622280717</v>
+        <v>477.725294904469</v>
       </c>
       <c r="J77">
-        <v>561.155507224605</v>
+        <v>558.062986402843</v>
       </c>
       <c r="K77">
-        <v>212.234519810519</v>
+        <v>211.064898086843</v>
       </c>
       <c r="L77">
-        <v>760.73331820161</v>
+        <v>756.540926616643</v>
       </c>
       <c r="M77">
-        <v>876.9040915930771</v>
+        <v>872.071484362058</v>
       </c>
       <c r="N77">
-        <v>543.481023345563</v>
+        <v>540.485906378359</v>
       </c>
       <c r="O77">
-        <v>35939.924537864</v>
+        <v>35751.0498181377</v>
       </c>
       <c r="P77">
-        <v>10649.1123066841</v>
+        <v>10590.4251849902</v>
       </c>
     </row>
     <row r="78">
@@ -4401,46 +4401,46 @@
         <v>5012.26515460426</v>
       </c>
       <c r="C78">
-        <v>136.720828062761</v>
+        <v>135.421263769695</v>
       </c>
       <c r="D78">
-        <v>18.3012132052514</v>
+        <v>18.1272557801954</v>
       </c>
       <c r="E78">
-        <v>57.0567235222544</v>
+        <v>56.514385667668</v>
       </c>
       <c r="F78">
-        <v>10.7654195325008</v>
+        <v>17.0609466166545</v>
       </c>
       <c r="G78">
-        <v>12.918503439001</v>
+        <v>59.7133131582907</v>
       </c>
       <c r="H78">
-        <v>32.2962585975025</v>
+        <v>31.9892749062272</v>
       </c>
       <c r="I78">
-        <v>22.6073810182517</v>
+        <v>22.392492434359</v>
       </c>
       <c r="J78">
-        <v>114.113447044509</v>
+        <v>113.028771335336</v>
       </c>
       <c r="K78">
-        <v>85.0468143067566</v>
+        <v>84.2384239197316</v>
       </c>
       <c r="L78">
-        <v>49.5209298495038</v>
+        <v>49.0502215228817</v>
       </c>
       <c r="M78">
-        <v>39.8320522702531</v>
+        <v>39.4534390510135</v>
       </c>
       <c r="N78">
-        <v>157.175125174512</v>
+        <v>155.681137876972</v>
       </c>
       <c r="O78">
-        <v>7804.9291610631</v>
+        <v>7760.59809225072</v>
       </c>
       <c r="P78">
-        <v>208.849138930516</v>
+        <v>206.863977726936</v>
       </c>
     </row>
     <row r="79">
@@ -4453,46 +4453,46 @@
         <v>13300.9944931144</v>
       </c>
       <c r="C79">
-        <v>678.968285753733</v>
+        <v>668.229443509684</v>
       </c>
       <c r="D79">
-        <v>333.14275237741</v>
+        <v>327.873629301127</v>
       </c>
       <c r="E79">
-        <v>391.157057540758</v>
+        <v>384.970356303434</v>
       </c>
       <c r="F79">
-        <v>311.167636785232</v>
+        <v>339.98505624101</v>
       </c>
       <c r="G79">
-        <v>58.8933097870355</v>
+        <v>183.154435968439</v>
       </c>
       <c r="H79">
-        <v>218.495435030793</v>
+        <v>215.03962117752</v>
       </c>
       <c r="I79">
-        <v>225.653044109388</v>
+        <v>222.084022560921</v>
       </c>
       <c r="J79">
-        <v>528.281778835945</v>
+        <v>519.926256490705</v>
       </c>
       <c r="K79">
-        <v>168.392171480628</v>
+        <v>165.728811493709</v>
       </c>
       <c r="L79">
-        <v>287.183367767484</v>
+        <v>282.641157260338</v>
       </c>
       <c r="M79">
-        <v>372.697960443329</v>
+        <v>366.803215893609</v>
       </c>
       <c r="N79">
-        <v>366.544928077519</v>
+        <v>360.747502423667</v>
       </c>
       <c r="O79">
-        <v>11585.9088006414</v>
+        <v>11523.2812173639</v>
       </c>
       <c r="P79">
-        <v>2148.28730029127</v>
+        <v>2114.30910293391</v>
       </c>
     </row>
     <row r="80">
@@ -4505,46 +4505,46 @@
         <v>3382.86407681914</v>
       </c>
       <c r="C80">
-        <v>123.733848183047</v>
+        <v>122.501500490094</v>
       </c>
       <c r="D80">
-        <v>236.211765058774</v>
+        <v>233.859174979397</v>
       </c>
       <c r="E80">
-        <v>69.4193284139451</v>
+        <v>68.7279351495029</v>
       </c>
       <c r="F80">
-        <v>14.0582861059396</v>
+        <v>16.0825670693225</v>
       </c>
       <c r="G80">
-        <v>7.17449340559533</v>
+        <v>21.4127235139155</v>
       </c>
       <c r="H80">
-        <v>27.4305185474868</v>
+        <v>27.1573197684552</v>
       </c>
       <c r="I80">
-        <v>47.4074710123374</v>
+        <v>46.9353084764696</v>
       </c>
       <c r="J80">
-        <v>99.66382978826191</v>
+        <v>98.67121141815571</v>
       </c>
       <c r="K80">
-        <v>24.4188592410862</v>
+        <v>24.1756555802272</v>
       </c>
       <c r="L80">
-        <v>32.0235896904531</v>
+        <v>31.7046454609265</v>
       </c>
       <c r="M80">
-        <v>42.3492787409695</v>
+        <v>41.9274941062797</v>
       </c>
       <c r="N80">
-        <v>56.8261738624706</v>
+        <v>56.2602042002715</v>
       </c>
       <c r="O80">
-        <v>3496.19924191304</v>
+        <v>3493.4282802106</v>
       </c>
       <c r="P80">
-        <v>595.134111818111</v>
+        <v>589.206775357908</v>
       </c>
     </row>
     <row r="81">
@@ -4557,46 +4557,46 @@
         <v>7104.0703978037</v>
       </c>
       <c r="C81">
-        <v>182.53755693927</v>
+        <v>180.717555129777</v>
       </c>
       <c r="D81">
-        <v>396.737623755084</v>
+        <v>392.781927156336</v>
       </c>
       <c r="E81">
-        <v>105.825033010194</v>
+        <v>104.76989808455</v>
       </c>
       <c r="F81">
-        <v>92.7562789336337</v>
+        <v>100.036318351815</v>
       </c>
       <c r="G81">
-        <v>11.7937536788469</v>
+        <v>47.3357973273571</v>
       </c>
       <c r="H81">
-        <v>47.4937648148159</v>
+        <v>47.0202253451747</v>
       </c>
       <c r="I81">
-        <v>64.2812700513727</v>
+        <v>63.6403497401134</v>
       </c>
       <c r="J81">
-        <v>191.037559590691</v>
+        <v>189.132807987973</v>
       </c>
       <c r="K81">
-        <v>85.2125265804974</v>
+        <v>84.362909903423</v>
       </c>
       <c r="L81">
-        <v>130.581290732458</v>
+        <v>129.279322034049</v>
       </c>
       <c r="M81">
-        <v>207.187564628391</v>
+        <v>205.121788418547</v>
       </c>
       <c r="N81">
-        <v>117.087536523327</v>
+        <v>115.920108121661</v>
       </c>
       <c r="O81">
-        <v>4360.60761021221</v>
+        <v>4359.83731517104</v>
       </c>
       <c r="P81">
-        <v>2689.61333897595</v>
+        <v>2662.79638565493</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>126227.558117115</v>
+        <v>126229.630534413</v>
       </c>
       <c r="C82">
-        <v>6403.77241016523</v>
+        <v>6335.224107645</v>
       </c>
       <c r="D82">
-        <v>5414.18980426237</v>
+        <v>5353.1020773712</v>
       </c>
       <c r="E82">
-        <v>1997.23981725424</v>
+        <v>1975.39834675927</v>
       </c>
       <c r="F82">
-        <v>1464.20087940172</v>
+        <v>2400.44468887154</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1427.52549549154</v>
       </c>
       <c r="H82">
-        <v>1031.07778868694</v>
+        <v>1019.82345076796</v>
       </c>
       <c r="I82">
-        <v>1308.66093454009</v>
+        <v>1294.66483164759</v>
       </c>
       <c r="J82">
-        <v>3116.05268894381</v>
+        <v>3081.71740394608</v>
       </c>
       <c r="K82">
-        <v>1188.17278309415</v>
+        <v>1175.28617670023</v>
       </c>
       <c r="L82">
-        <v>2900.87930113963</v>
+        <v>2869.77326935993</v>
       </c>
       <c r="M82">
-        <v>1007.25951002103</v>
+        <v>996.815985062168</v>
       </c>
       <c r="N82">
-        <v>1059.05423887355</v>
+        <v>1047.9577251189</v>
       </c>
       <c r="O82">
-        <v>129451.25778613</v>
+        <v>128878.314848882</v>
       </c>
       <c r="P82">
-        <v>26046.5128047</v>
+        <v>25776.3474750225</v>
       </c>
     </row>
     <row r="83">
@@ -4661,46 +4661,46 @@
         <v>42879.832744056</v>
       </c>
       <c r="C83">
-        <v>1333.67687016986</v>
+        <v>1319.62771708109</v>
       </c>
       <c r="D83">
-        <v>676.688240654053</v>
+        <v>669.55990477378</v>
       </c>
       <c r="E83">
-        <v>898.610454235748</v>
+        <v>889.144356321699</v>
       </c>
       <c r="F83">
-        <v>1051.9970567057</v>
+        <v>1252.7424611341</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>535.574516181379</v>
       </c>
       <c r="H83">
-        <v>255.235639010425</v>
+        <v>252.546948334016</v>
       </c>
       <c r="I83">
-        <v>711.976926422136</v>
+        <v>704.476854209213</v>
       </c>
       <c r="J83">
-        <v>1513.07331841293</v>
+        <v>1497.1343761096</v>
       </c>
       <c r="K83">
-        <v>1443.23887751466</v>
+        <v>1428.03558173336</v>
       </c>
       <c r="L83">
-        <v>759.0278147370281</v>
+        <v>751.032101377675</v>
       </c>
       <c r="M83">
-        <v>849.833680900516</v>
+        <v>840.881404865732</v>
       </c>
       <c r="N83">
-        <v>169.568982546276</v>
+        <v>167.782717336026</v>
       </c>
       <c r="O83">
-        <v>48997.1286405593</v>
+        <v>48480.985505308</v>
       </c>
       <c r="P83">
-        <v>12290.3067380112</v>
+        <v>12160.8387951141</v>
       </c>
     </row>
     <row r="84">
@@ -4713,46 +4713,46 @@
         <v>1724.69941866646</v>
       </c>
       <c r="C84">
-        <v>54.1093679300389</v>
+        <v>53.4688427446715</v>
       </c>
       <c r="D84">
-        <v>48.8178750301632</v>
+        <v>48.2399884340129</v>
       </c>
       <c r="E84">
-        <v>53.8910296307721</v>
+        <v>53.253089047387</v>
       </c>
       <c r="F84">
-        <v>9.003243987409739</v>
+        <v>12.297960745214</v>
       </c>
       <c r="G84">
-        <v>2.79986760236137</v>
+        <v>14.252435414732</v>
       </c>
       <c r="H84">
-        <v>39.8017876133848</v>
+        <v>39.3306298755606</v>
       </c>
       <c r="I84">
-        <v>23.336511162801</v>
+        <v>23.060262821521</v>
       </c>
       <c r="J84">
-        <v>123.065740210214</v>
+        <v>121.608936904686</v>
       </c>
       <c r="K84">
-        <v>54.1992719356193</v>
+        <v>53.5576825023769</v>
       </c>
       <c r="L84">
-        <v>58.8742802258006</v>
+        <v>58.1773499030558</v>
       </c>
       <c r="M84">
-        <v>85.8968556173985</v>
+        <v>84.8800427904968</v>
       </c>
       <c r="N84">
-        <v>31.4792453825125</v>
+        <v>31.1066065908355</v>
       </c>
       <c r="O84">
-        <v>1906.60708977315</v>
+        <v>1899.74937877151</v>
       </c>
       <c r="P84">
-        <v>93.0121154876196</v>
+        <v>91.9110750431785</v>
       </c>
     </row>
     <row r="85">
@@ -4765,46 +4765,46 @@
         <v>695.0545834880641</v>
       </c>
       <c r="C85">
-        <v>18.1696349344007</v>
+        <v>17.9098916031992</v>
       </c>
       <c r="D85">
-        <v>11.9924116005384</v>
+        <v>11.8209745326222</v>
       </c>
       <c r="E85">
-        <v>19.7422247574901</v>
+        <v>19.4600005277601</v>
       </c>
       <c r="F85">
-        <v>2.94153492088678</v>
+        <v>2.93293990762229</v>
       </c>
       <c r="G85">
-        <v>8.315492949429951</v>
+        <v>15.5233929711416</v>
       </c>
       <c r="H85">
-        <v>15.3072951844608</v>
+        <v>15.0884703232432</v>
       </c>
       <c r="I85">
-        <v>7.97608507394301</v>
+        <v>7.86206325047041</v>
       </c>
       <c r="J85">
-        <v>43.7609887461157</v>
+        <v>43.1354051813043</v>
       </c>
       <c r="K85">
-        <v>14.7981833712304</v>
+        <v>14.5866364987451</v>
       </c>
       <c r="L85">
-        <v>27.4694107227427</v>
+        <v>27.0767227973647</v>
       </c>
       <c r="M85">
-        <v>16.5178499403642</v>
+        <v>16.281719639272</v>
       </c>
       <c r="N85">
-        <v>10.5668985234933</v>
+        <v>10.4158398240275</v>
       </c>
       <c r="O85">
-        <v>683.805046743531</v>
+        <v>680.687399549238</v>
       </c>
       <c r="P85">
-        <v>99.22023560068109</v>
+        <v>97.8018364632985</v>
       </c>
     </row>
     <row r="86">
@@ -4817,46 +4817,46 @@
         <v>2745.71984486661</v>
       </c>
       <c r="C86">
-        <v>60.594625937432</v>
+        <v>59.9826963666994</v>
       </c>
       <c r="D86">
-        <v>8.97698162036029</v>
+        <v>8.886325387659159</v>
       </c>
       <c r="E86">
-        <v>81.91495728578759</v>
+        <v>81.0877191623899</v>
       </c>
       <c r="F86">
-        <v>10.0991043229053</v>
+        <v>13.3294880814887</v>
       </c>
       <c r="G86">
-        <v>12.3433497279954</v>
+        <v>34.4345108771793</v>
       </c>
       <c r="H86">
-        <v>23.5645767534458</v>
+        <v>23.3266041426053</v>
       </c>
       <c r="I86">
-        <v>20.1982086458107</v>
+        <v>19.9942321222331</v>
       </c>
       <c r="J86">
-        <v>117.822883767229</v>
+        <v>116.633020713027</v>
       </c>
       <c r="K86">
-        <v>86.4034480959678</v>
+        <v>85.53088185621949</v>
       </c>
       <c r="L86">
-        <v>77.4264664756075</v>
+        <v>76.6445564685603</v>
       </c>
       <c r="M86">
-        <v>85.28132539342271</v>
+        <v>84.42009118276211</v>
       </c>
       <c r="N86">
-        <v>31.419435671261</v>
+        <v>31.1021388568071</v>
       </c>
       <c r="O86">
-        <v>4212.44862535407</v>
+        <v>4194.34558297513</v>
       </c>
       <c r="P86">
-        <v>121.189251874864</v>
+        <v>119.965392733399</v>
       </c>
     </row>
     <row r="87">
@@ -4869,46 +4869,46 @@
         <v>26239.6443034931</v>
       </c>
       <c r="C87">
-        <v>683.123738093126</v>
+        <v>678.7730081468731</v>
       </c>
       <c r="D87">
-        <v>1623.84873999421</v>
+        <v>1613.50664975884</v>
       </c>
       <c r="E87">
-        <v>361.073396496289</v>
+        <v>358.773765036669</v>
       </c>
       <c r="F87">
-        <v>162.871327906545</v>
+        <v>174.410140713902</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>163.211869026082</v>
       </c>
       <c r="H87">
-        <v>287.639525717057</v>
+        <v>285.807585427943</v>
       </c>
       <c r="I87">
-        <v>357.422808827026</v>
+        <v>355.146427505278</v>
       </c>
       <c r="J87">
-        <v>658.455585743223</v>
+        <v>654.261964184752</v>
       </c>
       <c r="K87">
-        <v>458.145841338052</v>
+        <v>455.227967575936</v>
       </c>
       <c r="L87">
-        <v>250.055551496371</v>
+        <v>248.46297885476</v>
       </c>
       <c r="M87">
-        <v>389.381462282503</v>
+        <v>386.901540280089</v>
       </c>
       <c r="N87">
-        <v>376.097864567314</v>
+        <v>373.702544143137</v>
       </c>
       <c r="O87">
-        <v>16264.5499952693</v>
+        <v>16170.1799348241</v>
       </c>
       <c r="P87">
-        <v>7175.60560285913</v>
+        <v>7129.90506511175</v>
       </c>
     </row>
     <row r="88">
@@ -4921,46 +4921,46 @@
         <v>8234.62721222411</v>
       </c>
       <c r="C88">
-        <v>124.29763899416</v>
+        <v>120.733390748274</v>
       </c>
       <c r="D88">
-        <v>171.451173552697</v>
+        <v>166.534792601816</v>
       </c>
       <c r="E88">
-        <v>110.756140751253</v>
+        <v>107.580196432534</v>
       </c>
       <c r="F88">
-        <v>6.38780199672486</v>
+        <v>26.908144309415</v>
       </c>
       <c r="G88">
-        <v>22.1595740222062</v>
+        <v>118.958679184125</v>
       </c>
       <c r="H88">
-        <v>136.935215105268</v>
+        <v>133.00858299714</v>
       </c>
       <c r="I88">
-        <v>81.7516677452201</v>
+        <v>79.40742982793471</v>
       </c>
       <c r="J88">
-        <v>394.703890353005</v>
+        <v>383.385713594223</v>
       </c>
       <c r="K88">
-        <v>259.322291411764</v>
+        <v>251.886196649522</v>
       </c>
       <c r="L88">
-        <v>743.6948720450261</v>
+        <v>722.3693411289841</v>
       </c>
       <c r="M88">
-        <v>136.723358355628</v>
+        <v>132.802801262717</v>
       </c>
       <c r="N88">
-        <v>22.795786261277</v>
+        <v>22.1421146239648</v>
       </c>
       <c r="O88">
-        <v>8772.89298805514</v>
+        <v>8740.19067866532</v>
       </c>
       <c r="P88">
-        <v>768.459642097655</v>
+        <v>746.4239787210601</v>
       </c>
     </row>
   </sheetData>
